--- a/output/total_data.xlsx
+++ b/output/total_data.xlsx
@@ -4329,7 +4329,7 @@
         <v>-0.07999999999992724</v>
       </c>
       <c r="AI6">
-        <v>-3.222012791390782e-05</v>
+        <v>-3.222012791390782E-05</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -9405,7 +9405,7 @@
         <v>2226.57212</v>
       </c>
       <c r="U63">
-        <v>2e-05</v>
+        <v>2E-05</v>
       </c>
       <c r="V63" t="s">
         <v>771</v>
@@ -9506,7 +9506,7 @@
         <v>1569.49476</v>
       </c>
       <c r="U64">
-        <v>2e-05</v>
+        <v>2E-05</v>
       </c>
       <c r="V64" t="s">
         <v>771</v>
@@ -10278,7 +10278,7 @@
         <v>998.70766</v>
       </c>
       <c r="U72">
-        <v>4e-05</v>
+        <v>4E-05</v>
       </c>
       <c r="V72" t="s">
         <v>774</v>
@@ -10379,7 +10379,7 @@
         <v>998.70766</v>
       </c>
       <c r="U73">
-        <v>4e-05</v>
+        <v>4E-05</v>
       </c>
       <c r="V73" t="s">
         <v>774</v>
@@ -10480,7 +10480,7 @@
         <v>3959.75398</v>
       </c>
       <c r="U74">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V74" t="s">
         <v>768</v>
@@ -10581,7 +10581,7 @@
         <v>3959.75398</v>
       </c>
       <c r="U75">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V75" t="s">
         <v>768</v>
@@ -10682,7 +10682,7 @@
         <v>3959.75398</v>
       </c>
       <c r="U76">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V76" t="s">
         <v>768</v>
@@ -10783,7 +10783,7 @@
         <v>3959.75398</v>
       </c>
       <c r="U77">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V77" t="s">
         <v>768</v>
@@ -10884,7 +10884,7 @@
         <v>3959.75398</v>
       </c>
       <c r="U78">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V78" t="s">
         <v>768</v>
@@ -10985,7 +10985,7 @@
         <v>3959.75398</v>
       </c>
       <c r="U79">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V79" t="s">
         <v>768</v>
@@ -11086,7 +11086,7 @@
         <v>3959.75398</v>
       </c>
       <c r="U80">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V80" t="s">
         <v>768</v>
@@ -11187,7 +11187,7 @@
         <v>3959.75398</v>
       </c>
       <c r="U81">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V81" t="s">
         <v>768</v>
@@ -11288,7 +11288,7 @@
         <v>3959.75398</v>
       </c>
       <c r="U82">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V82" t="s">
         <v>768</v>
@@ -11389,7 +11389,7 @@
         <v>3959.75398</v>
       </c>
       <c r="U83">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V83" t="s">
         <v>768</v>
@@ -16917,7 +16917,7 @@
         <v>2258.66288</v>
       </c>
       <c r="U144">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V144" t="s">
         <v>771</v>
@@ -17018,7 +17018,7 @@
         <v>2258.66288</v>
       </c>
       <c r="U145">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V145" t="s">
         <v>771</v>
@@ -17119,7 +17119,7 @@
         <v>2258.66288</v>
       </c>
       <c r="U146">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V146" t="s">
         <v>771</v>
@@ -17220,7 +17220,7 @@
         <v>2258.66288</v>
       </c>
       <c r="U147">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V147" t="s">
         <v>771</v>
@@ -17321,7 +17321,7 @@
         <v>2258.66288</v>
       </c>
       <c r="U148">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V148" t="s">
         <v>771</v>
@@ -17422,7 +17422,7 @@
         <v>2258.66288</v>
       </c>
       <c r="U149">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V149" t="s">
         <v>771</v>
@@ -17523,7 +17523,7 @@
         <v>2258.66288</v>
       </c>
       <c r="U150">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V150" t="s">
         <v>771</v>
@@ -17624,7 +17624,7 @@
         <v>2279.0835</v>
       </c>
       <c r="U151">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V151" t="s">
         <v>771</v>
@@ -17725,7 +17725,7 @@
         <v>2279.0835</v>
       </c>
       <c r="U152">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V152" t="s">
         <v>771</v>
@@ -17826,7 +17826,7 @@
         <v>2279.0835</v>
       </c>
       <c r="U153">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V153" t="s">
         <v>771</v>
@@ -17927,7 +17927,7 @@
         <v>2279.0835</v>
       </c>
       <c r="U154">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V154" t="s">
         <v>771</v>
@@ -54175,7 +54175,7 @@
         <v>260.39932</v>
       </c>
       <c r="U551">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V551" t="s">
         <v>797</v>
@@ -54276,7 +54276,7 @@
         <v>271.78156</v>
       </c>
       <c r="U552">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V552" t="s">
         <v>777</v>
@@ -54635,7 +54635,7 @@
         <v>82.057</v>
       </c>
       <c r="U556">
-        <v>2e-05</v>
+        <v>2E-05</v>
       </c>
       <c r="V556" t="s">
         <v>809</v>
@@ -54733,7 +54733,7 @@
         <v>98.00946999999999</v>
       </c>
       <c r="U557">
-        <v>2e-05</v>
+        <v>2E-05</v>
       </c>
       <c r="V557" t="s">
         <v>797</v>
@@ -54834,7 +54834,7 @@
         <v>98.00946999999999</v>
       </c>
       <c r="U558">
-        <v>2e-05</v>
+        <v>2E-05</v>
       </c>
       <c r="V558" t="s">
         <v>777</v>
@@ -54932,7 +54932,7 @@
         <v>98.00946999999999</v>
       </c>
       <c r="U559">
-        <v>2e-05</v>
+        <v>2E-05</v>
       </c>
       <c r="V559" t="s">
         <v>777</v>
@@ -55030,7 +55030,7 @@
         <v>82.057</v>
       </c>
       <c r="U560">
-        <v>2e-05</v>
+        <v>2E-05</v>
       </c>
       <c r="V560" t="s">
         <v>778</v>
@@ -55128,7 +55128,7 @@
         <v>82.057</v>
       </c>
       <c r="U561">
-        <v>2e-05</v>
+        <v>2E-05</v>
       </c>
       <c r="V561" t="s">
         <v>809</v>
@@ -55226,7 +55226,7 @@
         <v>151.6681</v>
       </c>
       <c r="U562">
-        <v>2e-05</v>
+        <v>2E-05</v>
       </c>
       <c r="V562" t="s">
         <v>806</v>
@@ -55324,7 +55324,7 @@
         <v>233.7251</v>
       </c>
       <c r="U563">
-        <v>4e-05</v>
+        <v>4E-05</v>
       </c>
       <c r="V563" t="s">
         <v>808</v>
@@ -55425,7 +55425,7 @@
         <v>233.7251</v>
       </c>
       <c r="U564">
-        <v>4e-05</v>
+        <v>4E-05</v>
       </c>
       <c r="V564" t="s">
         <v>807</v>
@@ -55523,7 +55523,7 @@
         <v>310.72333</v>
       </c>
       <c r="U565">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V565" t="s">
         <v>777</v>
@@ -57046,7 +57046,7 @@
         <v>190.89731</v>
       </c>
       <c r="U581">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V581" t="s">
         <v>772</v>
@@ -57729,7 +57729,7 @@
         <v>68.34435999999999</v>
       </c>
       <c r="U588">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V588" t="s">
         <v>771</v>
@@ -57928,7 +57928,7 @@
         <v>3848.25897</v>
       </c>
       <c r="U590">
-        <v>8.000000000000001e-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="V590" t="s">
         <v>822</v>
@@ -58029,7 +58029,7 @@
         <v>3848.25897</v>
       </c>
       <c r="U591">
-        <v>8.000000000000001e-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="V591" t="s">
         <v>822</v>
@@ -58130,7 +58130,7 @@
         <v>3848.25897</v>
       </c>
       <c r="U592">
-        <v>8.000000000000001e-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="V592" t="s">
         <v>822</v>
@@ -58694,7 +58694,7 @@
         <v>3575.84963</v>
       </c>
       <c r="U598">
-        <v>9.000000000000001e-05</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="V598" t="s">
         <v>771</v>
@@ -59050,7 +59050,7 @@
         <v>391.7599</v>
       </c>
       <c r="U602">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V602" t="s">
         <v>808</v>
@@ -59151,7 +59151,7 @@
         <v>311.5831</v>
       </c>
       <c r="U603">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V603" t="s">
         <v>807</v>
@@ -61886,7 +61886,7 @@
         <v>297.60649</v>
       </c>
       <c r="U631">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V631" t="s">
         <v>809</v>
@@ -63929,7 +63929,7 @@
         <v>181.08098</v>
       </c>
       <c r="U652">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V652" t="s">
         <v>827</v>
@@ -66828,7 +66828,7 @@
         <v>135.10142</v>
       </c>
       <c r="U681">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V681" t="s">
         <v>771</v>
@@ -66929,7 +66929,7 @@
         <v>122.59838</v>
       </c>
       <c r="U682">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V682" t="s">
         <v>771</v>
@@ -67030,7 +67030,7 @@
         <v>89.73885</v>
       </c>
       <c r="U683">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V683" t="s">
         <v>771</v>
@@ -67131,7 +67131,7 @@
         <v>89.73885</v>
       </c>
       <c r="U684">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V684" t="s">
         <v>771</v>
@@ -67232,7 +67232,7 @@
         <v>101.57504</v>
       </c>
       <c r="U685">
-        <v>1e-05</v>
+        <v>1E-05</v>
       </c>
       <c r="V685" t="s">
         <v>771</v>
@@ -80125,7 +80125,7 @@
         <v>1805.85181</v>
       </c>
       <c r="U815">
-        <v>6e-05</v>
+        <v>6E-05</v>
       </c>
       <c r="V815" t="s">
         <v>772</v>
